--- a/paper/Paper/prev work.xlsx
+++ b/paper/Paper/prev work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64489DE9-8737-4A20-A24F-05A8AB20BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CE8B2-CC69-4537-B10A-B57E6674C024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="29010" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1991,9 +1991,9 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/paper/Paper/prev work.xlsx
+++ b/paper/Paper/prev work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CE8B2-CC69-4537-B10A-B57E6674C024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B00BBA-7BF1-43C8-AF70-619AC458FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="29010" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1991,9 +1991,9 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/paper/Paper/prev work.xlsx
+++ b/paper/Paper/prev work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B00BBA-7BF1-43C8-AF70-619AC458FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63108029-47F6-407A-A04C-81A2AEFFFF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,16 +1313,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1991,9 +1988,9 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2079,7 +2076,7 @@
       <c r="J2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2277,7 +2274,7 @@
       <c r="J8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2297,7 +2294,7 @@
       <c r="E9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2306,7 +2303,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2424,7 +2421,7 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2439,7 +2436,7 @@
       <c r="H14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -2459,7 +2456,7 @@
       <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2472,13 +2469,13 @@
         <v>66</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>121</v>
       </c>
     </row>
